--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1443.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1443.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.797471947668551</v>
+        <v>1.348248600959778</v>
       </c>
       <c r="B1">
-        <v>2.15767068696856</v>
+        <v>3.043877363204956</v>
       </c>
       <c r="C1">
-        <v>2.894169891260195</v>
+        <v>5.132182121276855</v>
       </c>
       <c r="D1">
-        <v>1.843050088046976</v>
+        <v>2.171936273574829</v>
       </c>
       <c r="E1">
-        <v>0.5960398414708621</v>
+        <v>1.021070599555969</v>
       </c>
     </row>
   </sheetData>
